--- a/EvolvedTax/wwwroot/Templates/InstituteEntitiesTemplate.xlsx
+++ b/EvolvedTax/wwwroot/Templates/InstituteEntitiesTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaeemIqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F6381-C285-4525-B4F1-DE0F0EFBBA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8EB4F9-9565-422D-94E1-E5919AB7B860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F2DF85C-AEB0-49F8-B977-95223E164819}"/>
   </bookViews>
@@ -47,25 +47,25 @@
     <t>EntityRegistrationDate</t>
   </si>
   <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Province (If applicable)</t>
+  </si>
+  <si>
+    <t>Zip/Postal Code</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,25 +451,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
